--- a/2022/11.TYM.xlsx
+++ b/2022/11.TYM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michal.batorski\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btn/PycharmProjects/cars/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7798E-3568-462E-81AC-D4681197D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D58A7-0692-1841-A732-4A883ACCAD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="28120" windowHeight="16440" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="styczen" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,16 @@
     <sheet name="pazdziernik" sheetId="10" r:id="rId10"/>
     <sheet name="listopad" sheetId="11" r:id="rId11"/>
     <sheet name="grudzien" sheetId="12" r:id="rId12"/>
-    <sheet name="Arkusz1" sheetId="13" r:id="rId13"/>
+    <sheet name="ochrona_srodowiska" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -471,17 +473,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,48 +805,48 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -855,7 +857,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -866,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -889,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -900,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -912,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -930,7 +932,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -948,7 +950,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -965,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -982,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1050,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -1204,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -1286,35 +1288,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -1323,6 +1315,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.0416666666666701E-2" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1337,48 +1339,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -1738,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -1796,7 +1798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -1820,35 +1822,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -1857,6 +1849,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1875,48 +1877,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -1950,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -2156,7 +2158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -2276,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -2358,35 +2360,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -2395,6 +2387,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2413,48 +2415,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -2814,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -2896,35 +2898,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -2933,6 +2925,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2947,13 +2949,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF242A8-434B-AD46-B758-329966FD0A51}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="207" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="207" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>46</v>
       </c>
@@ -2980,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>57</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>48</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>49</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>58</v>
       </c>
@@ -3025,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>52</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>53</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>54</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>60</v>
       </c>
@@ -3079,52 +3081,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ALZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -3228,7 +3230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -3566,35 +3568,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -3603,6 +3595,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3621,48 +3623,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -3766,7 +3768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -4104,35 +4106,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -4141,6 +4133,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4159,48 +4161,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4287,7 +4289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -4560,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -4642,35 +4644,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -4679,6 +4671,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4697,48 +4699,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -4893,7 +4895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -5098,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -5156,7 +5158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -5180,35 +5182,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -5217,6 +5209,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5235,48 +5237,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -5346,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -5431,7 +5433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -5584,7 +5586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -5636,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -5718,35 +5720,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -5755,6 +5747,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5773,48 +5775,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -5860,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -6020,7 +6022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -6037,7 +6039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -6088,7 +6090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -6156,7 +6158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -6174,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -6256,35 +6258,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -6293,6 +6285,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6311,48 +6313,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -6473,7 +6475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -6490,7 +6492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -6524,7 +6526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -6712,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -6755,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -6794,35 +6796,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -6831,6 +6823,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6849,48 +6851,48 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="1014" width="9.140625" style="1"/>
-    <col min="1015" max="1024" width="8.42578125" customWidth="1"/>
+    <col min="6" max="1014" width="9.1640625" style="1"/>
+    <col min="1015" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -6948,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -7096,7 +7098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -7130,7 +7132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -7147,7 +7149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -7232,7 +7234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>34</v>
@@ -7250,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>-----------</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
@@ -7332,35 +7334,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="E39" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -7369,6 +7361,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
